--- a/biology/Botanique/Otomycose/Otomycose.xlsx
+++ b/biology/Botanique/Otomycose/Otomycose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une otomycose est une affection de l’oreille due à un champignon. Elle se manifeste généralement par de vives et soudaines douleurs, des bourdonnements, un affaiblissement de l’ouïe et peut aller jusqu'à une perforation du tympan.
  Portail de la médecine   Portail de la mycologie                    </t>
